--- a/biology/Zoologie/Filistata_insidiatrix/Filistata_insidiatrix.xlsx
+++ b/biology/Zoologie/Filistata_insidiatrix/Filistata_insidiatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filistata insidiatrix est une espèce d'araignées aranéomorphes de la famille des Filistatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filistata insidiatrix est une espèce d'araignées aranéomorphes de la famille des Filistatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe du Sud, en Afrique du Nord, au Moyen-Orient et au Turkménistan[1].
-Elle a été introduite à Socotra, en Angola, au Cap-Vert, aux Açores et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe du Sud, en Afrique du Nord, au Moyen-Orient et au Turkménistan.
+Elle a été introduite à Socotra, en Angola, au Cap-Vert, aux Açores et au Venezuela.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7 à 9 mm et les femelles de 9 à 14 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7 à 9 mm et les femelles de 9 à 14 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea insidiatrix par en Forsskål, 1775. Elle est placée dans le genre Filistata par Simon en 1895[3].
-Filistata testacea[4] a été placée en synonymie par Simon en 1895[3].
-Filistata puta[5] et Filistata delimbata[6] ont été placées en synonymie par Zonstein et Marusik en 2019[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea insidiatrix par en Forsskål, 1775. Elle est placée dans le genre Filistata par Simon en 1895.
+Filistata testacea a été placée en synonymie par Simon en 1895.
+Filistata puta et Filistata delimbata ont été placées en synonymie par Zonstein et Marusik en 2019.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Forsskål, 1775 : Descriptiones animalium avium, amphibiorum, piscium, insectorum, vermium; quae in itinere orientali observavit Petrus Forskål. Hauniae, p. 85-86.</t>
         </is>
